--- a/common/file_templates/olympic.xlsx
+++ b/common/file_templates/olympic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -44,265 +44,301 @@
     <t>Подтвержден?</t>
   </si>
   <si>
-    <t>Шифр</t>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>Документ, удостоверяющий личность</t>
+  </si>
+  <si>
+    <t>Серия</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Дата выдачи</t>
+  </si>
+  <si>
+    <t>Кем выдан?</t>
+  </si>
+  <si>
+    <t>Регион проживания</t>
+  </si>
+  <si>
+    <t>Район/область</t>
+  </si>
+  <si>
+    <t>Город/населенный пункт проживания</t>
+  </si>
+  <si>
+    <t>Полное наименование общеобразовательной организации (по уставу)</t>
+  </si>
+  <si>
+    <t>Сокращенное наименование общеобразовательной организации (по уставу)</t>
+  </si>
+  <si>
+    <t>Статус участника олимпиады</t>
+  </si>
+  <si>
+    <t>Кол-во набранных баллов на региональном этапе в 2021/2022 учебном году</t>
+  </si>
+  <si>
+    <t>Класс, в котором обучается участник</t>
+  </si>
+  <si>
+    <t>Литер</t>
+  </si>
+  <si>
+    <t>Класс, за который выступает участник</t>
+  </si>
+  <si>
+    <t>ФИО наставника, подготовившего участника олимпиады</t>
+  </si>
+  <si>
+    <t>Место работы наставника</t>
+  </si>
+  <si>
+    <t>Должность наставника</t>
+  </si>
+  <si>
+    <t>Ученая степень</t>
+  </si>
+  <si>
+    <t>Размер футболки</t>
+  </si>
+  <si>
+    <t>Есть ли аллергия на продукты питания и/или медицинские препараты?</t>
+  </si>
+  <si>
+    <t>Укажите, на какие именно продукты питания и/или медицинские препараты есть аллергия</t>
+  </si>
+  <si>
+    <t>Относится ли участник к категории детей-инвалидов, инвалидов, детей с ОВЗ?</t>
+  </si>
+  <si>
+    <t>Нуждается ли участник в специальных условиях при организации олимпиад?</t>
+  </si>
+  <si>
+    <t>Укажите, какие специальные условия необходимо создать при организации олимпиады?</t>
+  </si>
+  <si>
+    <t>Особые сведения (непереносимость медицинских препаратов, хронический заболевания, о которых необходимо знать организаторам)</t>
+  </si>
+  <si>
+    <t>Сопровождающие</t>
+  </si>
+  <si>
+    <t>Дата и время прилета/приезда</t>
+  </si>
+  <si>
+    <t>Вид транспорта</t>
+  </si>
+  <si>
+    <t>Место прибытия (аэропорт/ ж/д вокзал, автовокзал и т.д.)</t>
+  </si>
+  <si>
+    <t>Номер рейса самолета или номер поезда и вагона</t>
+  </si>
+  <si>
+    <t>Дата и время вылета/выезда</t>
+  </si>
+  <si>
+    <t>Место отбытия (аэропорт/ ж/д вокзал, автовокзал и т.д.)</t>
+  </si>
+  <si>
+    <t>[olympic.num;block=row]</t>
+  </si>
+  <si>
+    <t>[olympic.id]</t>
+  </si>
+  <si>
+    <t>[olympic.user_id]</t>
+  </si>
+  <si>
+    <t>[olympic.last_name]</t>
+  </si>
+  <si>
+    <t>[olympic.first_name]</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>[olympic.sex]</t>
+  </si>
+  <si>
+    <t>[olympic.patronymic]</t>
+  </si>
+  <si>
+    <t>[olympic.is_success]</t>
+  </si>
+  <si>
+    <t>[olympic.code]</t>
+  </si>
+  <si>
+    <t>[olympic.mark_end]</t>
+  </si>
+  <si>
+    <t>[olympic.phone]</t>
+  </si>
+  <si>
+    <t>[olympic.email]</t>
+  </si>
+  <si>
+    <t>[olympic.birthday]</t>
+  </si>
+  <si>
+    <t>[olympic.type]</t>
+  </si>
+  <si>
+    <t>[olympic.series]</t>
+  </si>
+  <si>
+    <t>[olympic.number]</t>
+  </si>
+  <si>
+    <t>[olympic.date_issue]</t>
+  </si>
+  <si>
+    <t>[olympic.authority]</t>
+  </si>
+  <si>
+    <t>[olympic.region]</t>
+  </si>
+  <si>
+    <t>[olympic.zone]</t>
+  </si>
+  <si>
+    <t>[olympic.city]</t>
+  </si>
+  <si>
+    <t>[olympic.full_name]</t>
+  </si>
+  <si>
+    <t>[olympic.short_name]</t>
+  </si>
+  <si>
+    <t>[olympic.status]</t>
+  </si>
+  <si>
+    <t>[olympic.mark_olympic]</t>
+  </si>
+  <si>
+    <t>[olympic.grade_number]</t>
+  </si>
+  <si>
+    <t>[olympic.grade_letter]</t>
+  </si>
+  <si>
+    <t>[olympic.grade_performs]</t>
+  </si>
+  <si>
+    <t>[olympic.fio_teacher]</t>
+  </si>
+  <si>
+    <t>[olympic.place_work]</t>
+  </si>
+  <si>
+    <t>[olympic.post]</t>
+  </si>
+  <si>
+    <t>[olympic.academic]</t>
+  </si>
+  <si>
+    <t>[olympic.size]</t>
+  </si>
+  <si>
+    <t>[olympic.is_allergy]</t>
+  </si>
+  <si>
+    <t>[olympic.note_allergy]</t>
+  </si>
+  <si>
+    <t>[olympic.is_voz]</t>
+  </si>
+  <si>
+    <t>[olympic.is_need_conditions]</t>
+  </si>
+  <si>
+    <t>[olympic.note_conditions]</t>
+  </si>
+  <si>
+    <t>[olympic.note_special]</t>
+  </si>
+  <si>
+    <t>[olympic.personals]</t>
+  </si>
+  <si>
+    <t>[olympic.date_arrival]</t>
+  </si>
+  <si>
+    <t>[olympic.transport_arrival]</t>
+  </si>
+  <si>
+    <t>[olympic.place_arrival]</t>
+  </si>
+  <si>
+    <t>[olympic.number_arrival]</t>
+  </si>
+  <si>
+    <t>[olympic.date_departure]</t>
+  </si>
+  <si>
+    <t>[olympic.transport_departure]</t>
+  </si>
+  <si>
+    <t>[olympic.place_departure]</t>
+  </si>
+  <si>
+    <t>[olympic.number_departure]</t>
+  </si>
+  <si>
+    <t>Шифр 1</t>
+  </si>
+  <si>
+    <t>Оценка 1</t>
+  </si>
+  <si>
+    <t>Шифр 2</t>
+  </si>
+  <si>
+    <t>Оценка 2</t>
+  </si>
+  <si>
+    <t>[olympic.code_two]</t>
+  </si>
+  <si>
+    <t>[olympic.mark_end_two]</t>
+  </si>
+  <si>
+    <t>[olympic.code_three]</t>
+  </si>
+  <si>
+    <t>Шифр 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оценка 3</t>
+  </si>
+  <si>
+    <t>[olympic.mark_end_three]</t>
   </si>
   <si>
     <t>Итоговая оценка</t>
   </si>
   <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Дата рождения</t>
-  </si>
-  <si>
-    <t>Документ, удостоверяющий личность</t>
-  </si>
-  <si>
-    <t>Серия</t>
-  </si>
-  <si>
-    <t>Номер</t>
-  </si>
-  <si>
-    <t>Дата выдачи</t>
-  </si>
-  <si>
-    <t>Кем выдан?</t>
-  </si>
-  <si>
-    <t>Регион проживания</t>
-  </si>
-  <si>
-    <t>Район/область</t>
-  </si>
-  <si>
-    <t>Город/населенный пункт проживания</t>
-  </si>
-  <si>
-    <t>Полное наименование общеобразовательной организации (по уставу)</t>
-  </si>
-  <si>
-    <t>Сокращенное наименование общеобразовательной организации (по уставу)</t>
-  </si>
-  <si>
-    <t>Статус участника олимпиады</t>
-  </si>
-  <si>
-    <t>Кол-во набранных баллов на региональном этапе в 2021/2022 учебном году</t>
-  </si>
-  <si>
-    <t>Класс, в котором обучается участник</t>
-  </si>
-  <si>
-    <t>Литер</t>
-  </si>
-  <si>
-    <t>Класс, за который выступает участник</t>
-  </si>
-  <si>
-    <t>ФИО наставника, подготовившего участника олимпиады</t>
-  </si>
-  <si>
-    <t>Место работы наставника</t>
-  </si>
-  <si>
-    <t>Должность наставника</t>
-  </si>
-  <si>
-    <t>Ученая степень</t>
-  </si>
-  <si>
-    <t>Размер футболки</t>
-  </si>
-  <si>
-    <t>Есть ли аллергия на продукты питания и/или медицинские препараты?</t>
-  </si>
-  <si>
-    <t>Укажите, на какие именно продукты питания и/или медицинские препараты есть аллергия</t>
-  </si>
-  <si>
-    <t>Относится ли участник к категории детей-инвалидов, инвалидов, детей с ОВЗ?</t>
-  </si>
-  <si>
-    <t>Нуждается ли участник в специальных условиях при организации олимпиад?</t>
-  </si>
-  <si>
-    <t>Укажите, какие специальные условия необходимо создать при организации олимпиады?</t>
-  </si>
-  <si>
-    <t>Особые сведения (непереносимость медицинских препаратов, хронический заболевания, о которых необходимо знать организаторам)</t>
-  </si>
-  <si>
-    <t>Сопровождающие</t>
-  </si>
-  <si>
-    <t>Дата и время прилета/приезда</t>
-  </si>
-  <si>
-    <t>Вид транспорта</t>
-  </si>
-  <si>
-    <t>Место прибытия (аэропорт/ ж/д вокзал, автовокзал и т.д.)</t>
-  </si>
-  <si>
-    <t>Номер рейса самолета или номер поезда и вагона</t>
-  </si>
-  <si>
-    <t>Дата и время вылета/выезда</t>
-  </si>
-  <si>
-    <t>Место отбытия (аэропорт/ ж/д вокзал, автовокзал и т.д.)</t>
-  </si>
-  <si>
-    <t>[olympic.num;block=row]</t>
-  </si>
-  <si>
-    <t>[olympic.id]</t>
-  </si>
-  <si>
-    <t>[olympic.user_id]</t>
-  </si>
-  <si>
-    <t>[olympic.last_name]</t>
-  </si>
-  <si>
-    <t>[olympic.first_name]</t>
-  </si>
-  <si>
-    <t>Пол</t>
-  </si>
-  <si>
-    <t>[olympic.sex]</t>
-  </si>
-  <si>
-    <t>[olympic.patronymic]</t>
-  </si>
-  <si>
-    <t>[olympic.is_success]</t>
-  </si>
-  <si>
-    <t>[olympic.code]</t>
-  </si>
-  <si>
-    <t>[olympic.mark_end]</t>
-  </si>
-  <si>
-    <t>[olympic.phone]</t>
-  </si>
-  <si>
-    <t>[olympic.email]</t>
-  </si>
-  <si>
-    <t>[olympic.birthday]</t>
-  </si>
-  <si>
-    <t>[olympic.type]</t>
-  </si>
-  <si>
-    <t>[olympic.series]</t>
-  </si>
-  <si>
-    <t>[olympic.number]</t>
-  </si>
-  <si>
-    <t>[olympic.date_issue]</t>
-  </si>
-  <si>
-    <t>[olympic.authority]</t>
-  </si>
-  <si>
-    <t>[olympic.region]</t>
-  </si>
-  <si>
-    <t>[olympic.zone]</t>
-  </si>
-  <si>
-    <t>[olympic.city]</t>
-  </si>
-  <si>
-    <t>[olympic.full_name]</t>
-  </si>
-  <si>
-    <t>[olympic.short_name]</t>
-  </si>
-  <si>
-    <t>[olympic.status]</t>
-  </si>
-  <si>
-    <t>[olympic.mark_olympic]</t>
-  </si>
-  <si>
-    <t>[olympic.grade_number]</t>
-  </si>
-  <si>
-    <t>[olympic.grade_letter]</t>
-  </si>
-  <si>
-    <t>[olympic.grade_performs]</t>
-  </si>
-  <si>
-    <t>[olympic.fio_teacher]</t>
-  </si>
-  <si>
-    <t>[olympic.place_work]</t>
-  </si>
-  <si>
-    <t>[olympic.post]</t>
-  </si>
-  <si>
-    <t>[olympic.academic]</t>
-  </si>
-  <si>
-    <t>[olympic.size]</t>
-  </si>
-  <si>
-    <t>[olympic.is_allergy]</t>
-  </si>
-  <si>
-    <t>[olympic.note_allergy]</t>
-  </si>
-  <si>
-    <t>[olympic.is_voz]</t>
-  </si>
-  <si>
-    <t>[olympic.is_need_conditions]</t>
-  </si>
-  <si>
-    <t>[olympic.note_conditions]</t>
-  </si>
-  <si>
-    <t>[olympic.note_special]</t>
-  </si>
-  <si>
-    <t>[olympic.personals]</t>
-  </si>
-  <si>
-    <t>[olympic.date_arrival]</t>
-  </si>
-  <si>
-    <t>[olympic.transport_arrival]</t>
-  </si>
-  <si>
-    <t>[olympic.place_arrival]</t>
-  </si>
-  <si>
-    <t>[olympic.number_arrival]</t>
-  </si>
-  <si>
-    <t>[olympic.date_departure]</t>
-  </si>
-  <si>
-    <t>[olympic.transport_departure]</t>
-  </si>
-  <si>
-    <t>[olympic.place_departure]</t>
-  </si>
-  <si>
-    <t>[olympic.number_departure]</t>
+    <t>[olympic.mark_end_last]</t>
+  </si>
+  <si>
+    <t>[olympic.status_last]</t>
+  </si>
+  <si>
+    <t>Статус участника</t>
   </si>
 </sst>
 </file>
@@ -657,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AU30" sqref="AU30:AU34"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,25 +705,25 @@
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" customWidth="1"/>
-    <col min="14" max="14" width="37.5546875" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" customWidth="1"/>
-    <col min="18" max="18" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.109375" customWidth="1"/>
-    <col min="21" max="21" width="37.44140625" customWidth="1"/>
-    <col min="22" max="22" width="70.77734375" customWidth="1"/>
-    <col min="23" max="23" width="75.33203125" customWidth="1"/>
-    <col min="24" max="24" width="31.88671875" customWidth="1"/>
-    <col min="25" max="25" width="55.44140625" customWidth="1"/>
-    <col min="26" max="26" width="20.5546875" customWidth="1"/>
+    <col min="8" max="12" width="16.21875" customWidth="1"/>
+    <col min="14" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" customWidth="1"/>
+    <col min="20" max="20" width="37.5546875" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" customWidth="1"/>
+    <col min="24" max="24" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.109375" customWidth="1"/>
+    <col min="27" max="27" width="37.44140625" customWidth="1"/>
+    <col min="28" max="28" width="70.77734375" customWidth="1"/>
+    <col min="29" max="29" width="75.33203125" customWidth="1"/>
+    <col min="30" max="30" width="31.88671875" customWidth="1"/>
+    <col min="31" max="31" width="55.44140625" customWidth="1"/>
+    <col min="32" max="32" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -704,278 +740,314 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU1" s="3" t="s">
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="T2" t="s">
         <v>56</v>
       </c>
-      <c r="M2" t="s">
+      <c r="U2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" t="s">
+      <c r="V2" t="s">
         <v>58</v>
       </c>
-      <c r="O2" t="s">
+      <c r="W2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P2" t="s">
+      <c r="X2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
